--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter06/Create_06_01.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter06/Create_06_01.xlsx
@@ -1,28 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368BD476-4126-41AB-823C-9CD0A66E984C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0CD5A3-CDD0-41F2-9C3F-E2C082B60407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
-    <sheet name="OrderDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId1"/>
+    <sheet name="OrderDetails" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OrderDetails!$G$1:$G$275</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">[1]Products!$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OrderDetails!$G$1:$G$275</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">[1]Products!$B$1</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="250">
   <si>
     <t>OrderNum</t>
   </si>
@@ -779,6 +783,15 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Suma de Total Price</t>
   </si>
 </sst>
 </file>
@@ -821,10 +834,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,10 +855,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -863,6 +880,1005 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Create_06_01.xlsx]Hoja2!TablaDinámica2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Batteries</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid Tie Inverters</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Landscape lighting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lightbulbs</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Solar panels</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Wind harvester</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1219092.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3586923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8961.7000000000025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11108.969999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295106.04000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>307043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32C0-48BC-BB68-32A69D9EC0A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="214688863"/>
+        <c:axId val="49047103"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="214688863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49047103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49047103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214688863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7CDE51-CA43-47A2-AD92-66D344F7F768}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -890,6 +1906,3431 @@
 </externalLink>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Javier García" refreshedDate="44112.673695833335" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="274" xr:uid="{952D8028-E9B5-4D5E-8F14-783A99C478D2}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="AllOrderDetails"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="OrderNum" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="274"/>
+    </cacheField>
+    <cacheField name="CustFullName" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="State" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Date of Purchase" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-01-01T00:00:00" maxDate="2018-12-30T00:00:00"/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="14">
+      <sharedItems count="6">
+        <s v="Solar panels"/>
+        <s v="Grid Tie Inverters"/>
+        <s v="Batteries"/>
+        <s v="Lightbulbs"/>
+        <s v="Wind harvester"/>
+        <s v="Landscape lighting"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SKU" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="ProductName" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Quantity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="18"/>
+    </cacheField>
+    <cacheField name="Unit Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.65" maxValue="44006"/>
+    </cacheField>
+    <cacheField name="Total Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.24" maxValue="514872"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="274">
+  <r>
+    <n v="1"/>
+    <s v="Graham Frederick"/>
+    <s v="Massachusetts"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="0"/>
+    <s v="KE625"/>
+    <s v="K-Eco 625"/>
+    <n v="1"/>
+    <n v="1201.23"/>
+    <n v="1201.23"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Jael Rice"/>
+    <s v="California"/>
+    <d v="2017-01-01T00:00:00"/>
+    <x v="1"/>
+    <s v="KI9K"/>
+    <s v="K-Invert 9K"/>
+    <n v="10"/>
+    <n v="19806"/>
+    <n v="198060"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Nolan Slater"/>
+    <s v="Nevada"/>
+    <d v="2017-01-05T00:00:00"/>
+    <x v="1"/>
+    <s v="KI7K"/>
+    <s v="K-Invert 7K"/>
+    <n v="2"/>
+    <n v="10714"/>
+    <n v="21428"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Blaine Ashley"/>
+    <s v="North Carolina"/>
+    <d v="2017-01-15T00:00:00"/>
+    <x v="2"/>
+    <s v="KE12Li"/>
+    <s v="K-Eco 12-volt Lithium-ion solar backup battery"/>
+    <n v="8"/>
+    <n v="4504"/>
+    <n v="36032"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Medge Ratliff"/>
+    <s v="Ohio"/>
+    <d v="2017-01-17T00:00:00"/>
+    <x v="1"/>
+    <s v="KI13K"/>
+    <s v="K-Invert 13K"/>
+    <n v="11"/>
+    <n v="28604"/>
+    <n v="314644"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Cally Reynolds"/>
+    <s v="North Dakota"/>
+    <d v="2017-01-18T00:00:00"/>
+    <x v="0"/>
+    <s v="KE5"/>
+    <s v="K-Eco Mini "/>
+    <n v="17"/>
+    <n v="40.950000000000003"/>
+    <n v="696.15000000000009"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Brock Case"/>
+    <s v="Virginia"/>
+    <d v="2017-01-19T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAAA12"/>
+    <s v="K-Eco  AAA NiMH rechargeable batteries (12-pack)"/>
+    <n v="7"/>
+    <n v="12.8"/>
+    <n v="89.600000000000009"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Theodore Brock"/>
+    <s v="New York"/>
+    <d v="2017-01-20T00:00:00"/>
+    <x v="3"/>
+    <s v="KE9W"/>
+    <s v="K-Eco Energy Bulbs 9W "/>
+    <n v="10"/>
+    <n v="9"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Karly Hardin"/>
+    <s v="Ohio"/>
+    <d v="2017-01-21T00:00:00"/>
+    <x v="3"/>
+    <s v="KE13W"/>
+    <s v="K-Eco Energy Bulbs 13W "/>
+    <n v="1"/>
+    <n v="5.24"/>
+    <n v="5.24"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Eagan Bray"/>
+    <s v="Pennsylvania"/>
+    <d v="2017-01-21T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W"/>
+    <s v="K-Eco Energy Bulbs 23W "/>
+    <n v="11"/>
+    <n v="13.8"/>
+    <n v="151.80000000000001"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="Oleg Merritt"/>
+    <s v="California"/>
+    <d v="2017-01-22T00:00:00"/>
+    <x v="2"/>
+    <s v="KE36Li"/>
+    <s v="K-Eco 36-volt Lithium-ion solar backup battery"/>
+    <n v="11"/>
+    <n v="7510"/>
+    <n v="82610"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="Roth Black"/>
+    <s v="New York"/>
+    <d v="2017-01-24T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAA06"/>
+    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <n v="3"/>
+    <n v="8.35"/>
+    <n v="25.049999999999997"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="Jaime Craig"/>
+    <s v="Ohio"/>
+    <d v="2017-02-04T00:00:00"/>
+    <x v="3"/>
+    <s v="KE13W08"/>
+    <s v="K-Eco Energy Bulbs 13W  (8-pack)"/>
+    <n v="12"/>
+    <n v="21.25"/>
+    <n v="255"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="Jenna Hendricks"/>
+    <s v="Oklahoma"/>
+    <d v="2017-02-06T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL100"/>
+    <s v="K-Eco Blast 100"/>
+    <n v="5"/>
+    <n v="282"/>
+    <n v="1410"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Josiah Wagner"/>
+    <s v="Alabama"/>
+    <d v="2017-02-06T00:00:00"/>
+    <x v="3"/>
+    <s v="KE9W04"/>
+    <s v="K-Eco Energy Bulbs 9W (4-pack)"/>
+    <n v="2"/>
+    <n v="8.1999999999999993"/>
+    <n v="16.399999999999999"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="Nasim Sheppard"/>
+    <s v="New York"/>
+    <d v="2017-02-08T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W08"/>
+    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <n v="16"/>
+    <n v="21.4"/>
+    <n v="342.4"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="Leslie Pace"/>
+    <s v="Texas"/>
+    <d v="2017-02-14T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W04"/>
+    <s v="K-Eco Energy Bulbs 20W (4-pack)"/>
+    <n v="7"/>
+    <n v="17.45"/>
+    <n v="122.14999999999999"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="Shay Davidson"/>
+    <s v="Texas"/>
+    <d v="2017-02-16T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL1200"/>
+    <s v="K-Eco Blast 1200"/>
+    <n v="16"/>
+    <n v="2310"/>
+    <n v="36960"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="Jerry Gill"/>
+    <s v="Alabama"/>
+    <d v="2017-02-18T00:00:00"/>
+    <x v="0"/>
+    <s v="KE250"/>
+    <s v="K-Eco 250"/>
+    <n v="15"/>
+    <n v="442.5"/>
+    <n v="6637.5"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="Kenneth Potts"/>
+    <s v="Montana"/>
+    <d v="2017-02-23T00:00:00"/>
+    <x v="3"/>
+    <s v="KE9W08"/>
+    <s v="K-Eco Energy Bulbs 9W  (8-pack)"/>
+    <n v="9"/>
+    <n v="16.5"/>
+    <n v="148.5"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="Quail Vance"/>
+    <s v="Iowa"/>
+    <d v="2017-02-24T00:00:00"/>
+    <x v="1"/>
+    <s v="KI2K"/>
+    <s v="K-Invert 2K"/>
+    <n v="14"/>
+    <n v="3066"/>
+    <n v="42924"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="Melyssa Gates"/>
+    <s v="California"/>
+    <d v="2017-02-25T00:00:00"/>
+    <x v="0"/>
+    <s v="KE001"/>
+    <s v="K-Eco phone charger"/>
+    <n v="15"/>
+    <n v="23.85"/>
+    <n v="357.75"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="Shafira Bennett"/>
+    <s v="Ohio"/>
+    <d v="2017-02-27T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W08"/>
+    <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+    <n v="16"/>
+    <n v="20.5"/>
+    <n v="328"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Quentin Marshall"/>
+    <s v="District of Columbia"/>
+    <d v="2017-03-06T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH01"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+    <n v="4"/>
+    <n v="13.25"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="Rose Holcomb"/>
+    <s v="Georgia"/>
+    <d v="2017-03-07T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH04"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (4-pack)"/>
+    <n v="7"/>
+    <n v="21.03"/>
+    <n v="147.21"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="Zephr Mcgee"/>
+    <s v="Pennsylvania"/>
+    <d v="2017-03-11T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W04"/>
+    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <n v="13"/>
+    <n v="14"/>
+    <n v="182"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="Sade Santiago"/>
+    <s v="Alaska"/>
+    <d v="2017-03-15T00:00:00"/>
+    <x v="2"/>
+    <s v="KE18Li"/>
+    <s v="K-Eco 18-volt Lithium-ion solar backup battery"/>
+    <n v="8"/>
+    <n v="5205"/>
+    <n v="41640"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="Sydney Bartlett"/>
+    <s v="Tennessee"/>
+    <d v="2017-03-16T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH04"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (4-pack)"/>
+    <n v="4"/>
+    <n v="23.03"/>
+    <n v="92.12"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="Anastasia Owens"/>
+    <s v="Kansas"/>
+    <d v="2017-03-16T00:00:00"/>
+    <x v="1"/>
+    <s v="KI13K"/>
+    <s v="K-Invert 13K"/>
+    <n v="8"/>
+    <n v="28606"/>
+    <n v="228848"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="Brooke Perkins"/>
+    <s v="Texas"/>
+    <d v="2017-03-16T00:00:00"/>
+    <x v="1"/>
+    <s v="KI4K"/>
+    <s v="K-Invert 4K"/>
+    <n v="12"/>
+    <n v="6128"/>
+    <n v="73536"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <s v="Hadley Sosa"/>
+    <s v="Florida"/>
+    <d v="2017-03-21T00:00:00"/>
+    <x v="3"/>
+    <s v="KE9W08"/>
+    <s v="K-Eco Energy Bulbs 9W  (8-pack)"/>
+    <n v="1"/>
+    <n v="14.5"/>
+    <n v="14.5"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <s v="Shellie Velez"/>
+    <s v="Ohio"/>
+    <d v="2017-03-28T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W04"/>
+    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <n v="14"/>
+    <n v="13"/>
+    <n v="182"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="Laith Jordan"/>
+    <s v="Maryland"/>
+    <d v="2017-03-29T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAAA12"/>
+    <s v="K-Eco  AAA NiMH rechargeable batteries (12-pack)"/>
+    <n v="2"/>
+    <n v="14.8"/>
+    <n v="29.6"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <s v="Gray Gutierrez"/>
+    <s v="District of Columbia"/>
+    <d v="2017-03-29T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH12"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (12-pack)"/>
+    <n v="11"/>
+    <n v="45.92"/>
+    <n v="505.12"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <s v="Amery Washington"/>
+    <s v="Illinois"/>
+    <d v="2017-04-01T00:00:00"/>
+    <x v="0"/>
+    <s v="KE575"/>
+    <s v="K-Eco 575"/>
+    <n v="11"/>
+    <n v="1012.25"/>
+    <n v="11134.75"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="Nicole Mcconnell"/>
+    <s v="California"/>
+    <d v="2017-04-01T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W04"/>
+    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <n v="9"/>
+    <n v="19"/>
+    <n v="171"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="Brooke Perkins"/>
+    <s v="Texas"/>
+    <d v="2017-04-02T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAA06"/>
+    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <n v="14"/>
+    <n v="11.35"/>
+    <n v="158.9"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="Kaden Sharpe"/>
+    <s v="Virginia"/>
+    <d v="2017-04-05T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W04"/>
+    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <n v="5"/>
+    <n v="15"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="Jael Rice"/>
+    <s v="California"/>
+    <d v="2017-04-08T00:00:00"/>
+    <x v="0"/>
+    <s v="KE180"/>
+    <s v="K-Eco 180"/>
+    <n v="8"/>
+    <n v="317"/>
+    <n v="2536"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="Merrill Freeman"/>
+    <s v="Connecticut"/>
+    <d v="2017-04-09T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAAA12"/>
+    <s v="K-Eco  AAA NiMH rechargeable batteries (12-pack)"/>
+    <n v="13"/>
+    <n v="18.8"/>
+    <n v="244.4"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="Adena Jenkins"/>
+    <s v="Illinois"/>
+    <d v="2017-04-13T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL200"/>
+    <s v="K-Eco Blast 200"/>
+    <n v="3"/>
+    <n v="557"/>
+    <n v="1671"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="Mollie Meyers"/>
+    <s v="Texas"/>
+    <d v="2017-04-16T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W04"/>
+    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <n v="16"/>
+    <n v="14"/>
+    <n v="224"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="Hedy Vang"/>
+    <s v="California"/>
+    <d v="2017-04-17T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH08"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (8-pack)"/>
+    <n v="18"/>
+    <n v="42.18"/>
+    <n v="759.24"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="Chastity Charles"/>
+    <s v="Alabama"/>
+    <d v="2017-04-18T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH01"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+    <n v="5"/>
+    <n v="7.25"/>
+    <n v="36.25"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <s v="Kamal Newton"/>
+    <s v="Wisconsin"/>
+    <d v="2017-04-19T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W08"/>
+    <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+    <n v="9"/>
+    <n v="20.5"/>
+    <n v="184.5"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <s v="Dorian Dale"/>
+    <s v="Michigan"/>
+    <d v="2017-04-23T00:00:00"/>
+    <x v="0"/>
+    <s v="KE575"/>
+    <s v="K-Eco 575"/>
+    <n v="18"/>
+    <n v="1015.25"/>
+    <n v="18274.5"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <s v="Jenna Hendricks"/>
+    <s v="Oklahoma"/>
+    <d v="2017-04-30T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH01"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+    <n v="12"/>
+    <n v="11.25"/>
+    <n v="135"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="Benjamin Miranda"/>
+    <s v="Florida"/>
+    <d v="2017-05-01T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBR5"/>
+    <s v="K-Eco Breeze Mini "/>
+    <n v="10"/>
+    <n v="58"/>
+    <n v="580"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="Philip Ware"/>
+    <s v="District of Columbia"/>
+    <d v="2017-05-06T00:00:00"/>
+    <x v="0"/>
+    <s v="KE275"/>
+    <s v="K-Eco 275"/>
+    <n v="7"/>
+    <n v="488.25"/>
+    <n v="3417.75"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <s v="Malik Faulkner"/>
+    <s v="Florida"/>
+    <d v="2017-05-14T00:00:00"/>
+    <x v="2"/>
+    <s v="KE48Li"/>
+    <s v="K-Eco 48-volt Lithium-ion solar backup battery"/>
+    <n v="10"/>
+    <n v="13235"/>
+    <n v="132350"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <s v="Serena Malone"/>
+    <s v="California"/>
+    <d v="2017-05-15T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W08"/>
+    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <n v="2"/>
+    <n v="14.4"/>
+    <n v="28.8"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <s v="Mollie Meyers"/>
+    <s v="Texas"/>
+    <d v="2017-05-16T00:00:00"/>
+    <x v="2"/>
+    <s v="KE18Li"/>
+    <s v="K-Eco 18-volt Lithium-ion solar backup battery"/>
+    <n v="1"/>
+    <n v="5201"/>
+    <n v="5201"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <s v="Cally Reynolds"/>
+    <s v="North Dakota"/>
+    <d v="2017-05-16T00:00:00"/>
+    <x v="3"/>
+    <s v="KE13W08"/>
+    <s v="K-Eco Energy Bulbs 13W  (8-pack)"/>
+    <n v="14"/>
+    <n v="14.25"/>
+    <n v="199.5"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <s v="Ayanna Foreman"/>
+    <s v="California"/>
+    <d v="2017-05-17T00:00:00"/>
+    <x v="3"/>
+    <s v="KE9W08"/>
+    <s v="K-Eco Energy Bulbs 9W  (8-pack)"/>
+    <n v="11"/>
+    <n v="12.5"/>
+    <n v="137.5"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <s v="Francesca Hodges"/>
+    <s v="Iowa"/>
+    <d v="2017-05-19T00:00:00"/>
+    <x v="0"/>
+    <s v="KE325X"/>
+    <s v="K-Eco 325x (same power, smaller footprint)"/>
+    <n v="11"/>
+    <n v="895.5"/>
+    <n v="9850.5"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <s v="Shay Davidson"/>
+    <s v="Texas"/>
+    <d v="2017-05-24T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH08"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (8-pack)"/>
+    <n v="10"/>
+    <n v="43.18"/>
+    <n v="431.8"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <s v="Sydney Bartlett"/>
+    <s v="Tennessee"/>
+    <d v="2017-05-25T00:00:00"/>
+    <x v="0"/>
+    <s v="KE001"/>
+    <s v="K-Eco phone charger"/>
+    <n v="17"/>
+    <n v="19.850000000000001"/>
+    <n v="337.45000000000005"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <s v="Sasha King"/>
+    <s v="Colorado"/>
+    <d v="2017-05-30T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL400"/>
+    <s v="K-Eco Blast 400"/>
+    <n v="8"/>
+    <n v="889"/>
+    <n v="7112"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <s v="Calvin Henry"/>
+    <s v="Florida"/>
+    <d v="2017-06-06T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAAA06"/>
+    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <n v="12"/>
+    <n v="2.65"/>
+    <n v="31.799999999999997"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <s v="Mona Matthews"/>
+    <s v="California"/>
+    <d v="2017-06-07T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W08"/>
+    <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+    <n v="9"/>
+    <n v="26.5"/>
+    <n v="238.5"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <s v="Nash Vasquez"/>
+    <s v="Minnesota"/>
+    <d v="2017-06-08T00:00:00"/>
+    <x v="3"/>
+    <s v="KE9W"/>
+    <s v="K-Eco Energy Bulbs 9W "/>
+    <n v="9"/>
+    <n v="7"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <s v="Judith Leonard"/>
+    <s v="New Jersey"/>
+    <d v="2017-06-10T00:00:00"/>
+    <x v="2"/>
+    <s v="KE36Li"/>
+    <s v="K-Eco 36-volt Lithium-ion solar backup battery"/>
+    <n v="14"/>
+    <n v="7510"/>
+    <n v="105140"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <s v="Barrett Howell"/>
+    <s v="California"/>
+    <d v="2017-06-10T00:00:00"/>
+    <x v="0"/>
+    <s v="KE625"/>
+    <s v="K-Eco 625"/>
+    <n v="5"/>
+    <n v="1204.23"/>
+    <n v="6021.15"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <s v="Brody Love"/>
+    <s v="California"/>
+    <d v="2017-06-17T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W04"/>
+    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <n v="4"/>
+    <n v="16"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <s v="Cailin Alford"/>
+    <s v="North Carolina"/>
+    <d v="2017-06-19T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL100"/>
+    <s v="K-Eco Blast 100"/>
+    <n v="2"/>
+    <n v="285"/>
+    <n v="570"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <s v="Sydney Bartlett"/>
+    <s v="Tennessee"/>
+    <d v="2017-06-25T00:00:00"/>
+    <x v="0"/>
+    <s v="KE450"/>
+    <s v="K-Eco 450"/>
+    <n v="12"/>
+    <n v="796.5"/>
+    <n v="9558"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <s v="Hedy Vang"/>
+    <s v="California"/>
+    <d v="2017-06-28T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAA12"/>
+    <s v="K-Eco AA  NiMH rechargeable batteries (12-pack)"/>
+    <n v="18"/>
+    <n v="13.5"/>
+    <n v="243"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <s v="Leslie Pace"/>
+    <s v="Texas"/>
+    <d v="2017-07-01T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W08"/>
+    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <n v="7"/>
+    <n v="14.4"/>
+    <n v="100.8"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <s v="Adara Langley"/>
+    <s v="California"/>
+    <d v="2017-07-02T00:00:00"/>
+    <x v="0"/>
+    <s v="KE225"/>
+    <s v="K-Eco 225"/>
+    <n v="12"/>
+    <n v="391"/>
+    <n v="4692"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <s v="Coby Lucas"/>
+    <s v="Tennessee"/>
+    <d v="2017-07-09T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAAA06"/>
+    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <n v="7"/>
+    <n v="16.5"/>
+    <n v="115.5"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <s v="Nash Vasquez"/>
+    <s v="Minnesota"/>
+    <d v="2017-07-11T00:00:00"/>
+    <x v="1"/>
+    <s v="KI20K"/>
+    <s v="K-Invert 20K"/>
+    <n v="4"/>
+    <n v="44001"/>
+    <n v="176004"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <s v="Iliana Hester"/>
+    <s v="Illinois"/>
+    <d v="2017-07-13T00:00:00"/>
+    <x v="0"/>
+    <s v="KE325"/>
+    <s v="K-Eco 325"/>
+    <n v="7"/>
+    <n v="576.75"/>
+    <n v="4037.25"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <s v="Arden Bennett"/>
+    <s v="Louisiana"/>
+    <d v="2017-07-17T00:00:00"/>
+    <x v="0"/>
+    <s v="KE250X"/>
+    <s v="K-Eco 250x (same power, smaller footprint)"/>
+    <n v="16"/>
+    <n v="660"/>
+    <n v="10560"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <s v="Nasim Sheppard"/>
+    <s v="New York"/>
+    <d v="2017-07-18T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAAA06"/>
+    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <n v="11"/>
+    <n v="12.5"/>
+    <n v="137.5"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <s v="Wynter Roberts"/>
+    <s v="California"/>
+    <d v="2017-07-24T00:00:00"/>
+    <x v="0"/>
+    <s v="KE5"/>
+    <s v="K-Eco Mini "/>
+    <n v="6"/>
+    <n v="46.95"/>
+    <n v="281.70000000000005"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <s v="Zephr Mcgee"/>
+    <s v="Pennsylvania"/>
+    <d v="2017-07-24T00:00:00"/>
+    <x v="1"/>
+    <s v="KI20K"/>
+    <s v="K-Invert 20K"/>
+    <n v="6"/>
+    <n v="44006"/>
+    <n v="264036"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <s v="Graham Frederick"/>
+    <s v="Massachusetts"/>
+    <d v="2017-07-25T00:00:00"/>
+    <x v="3"/>
+    <s v="KE13W08"/>
+    <s v="K-Eco Energy Bulbs 13W  (8-pack)"/>
+    <n v="1"/>
+    <n v="21.25"/>
+    <n v="21.25"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <s v="Astra Edwards"/>
+    <s v="New York"/>
+    <d v="2017-07-26T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL100"/>
+    <s v="K-Eco Blast 100"/>
+    <n v="8"/>
+    <n v="290"/>
+    <n v="2320"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <s v="Calvin Henry"/>
+    <s v="Florida"/>
+    <d v="2017-07-27T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAA06"/>
+    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <n v="8"/>
+    <n v="10.35"/>
+    <n v="82.8"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <s v="Chastity Charles"/>
+    <s v="Alabama"/>
+    <d v="2017-07-29T00:00:00"/>
+    <x v="0"/>
+    <s v="KE325X"/>
+    <s v="K-Eco 325x (same power, smaller footprint)"/>
+    <n v="14"/>
+    <n v="891.5"/>
+    <n v="12481"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <s v="Derek Conrad"/>
+    <s v="Colorado"/>
+    <d v="2017-08-03T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL400"/>
+    <s v="K-Eco Blast 400"/>
+    <n v="1"/>
+    <n v="883"/>
+    <n v="883"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <s v="Eric Donaldson"/>
+    <s v="Florida"/>
+    <d v="2017-08-03T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH04"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (4-pack)"/>
+    <n v="11"/>
+    <n v="29.03"/>
+    <n v="319.33000000000004"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <s v="Kyle Keith"/>
+    <s v="Georgia"/>
+    <d v="2017-08-08T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W08"/>
+    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <n v="3"/>
+    <n v="13.4"/>
+    <n v="40.200000000000003"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <s v="Germaine Green"/>
+    <s v="Texas"/>
+    <d v="2017-08-12T00:00:00"/>
+    <x v="1"/>
+    <s v="KI9K"/>
+    <s v="K-Invert 9K"/>
+    <n v="3"/>
+    <n v="19803"/>
+    <n v="59409"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <s v="Lunea Rios"/>
+    <s v="Maryland"/>
+    <d v="2017-08-23T00:00:00"/>
+    <x v="0"/>
+    <s v="KE700"/>
+    <s v="K-Eco 700"/>
+    <n v="4"/>
+    <n v="1504"/>
+    <n v="6016"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <s v="Zephr Mcgee"/>
+    <s v="Pennsylvania"/>
+    <d v="2017-08-25T00:00:00"/>
+    <x v="2"/>
+    <s v="KE48Li"/>
+    <s v="K-Eco 48-volt Lithium-ion solar backup battery"/>
+    <n v="10"/>
+    <n v="13242"/>
+    <n v="132420"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <s v="Debra Finley"/>
+    <s v="Ohio"/>
+    <d v="2017-08-25T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL800"/>
+    <s v="K-Eco Blast 800"/>
+    <n v="9"/>
+    <n v="1284"/>
+    <n v="11556"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <s v="Michael Rutledge"/>
+    <s v="Ohio"/>
+    <d v="2017-08-26T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAA06"/>
+    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <n v="5"/>
+    <n v="16.350000000000001"/>
+    <n v="81.75"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <s v="Quentin Marshall"/>
+    <s v="District of Columbia"/>
+    <d v="2017-08-30T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W08"/>
+    <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+    <n v="7"/>
+    <n v="27.5"/>
+    <n v="192.5"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <s v="Kyla Hebert"/>
+    <s v="North Carolina"/>
+    <d v="2017-08-30T00:00:00"/>
+    <x v="3"/>
+    <s v="KE9W"/>
+    <s v="K-Eco Energy Bulbs 9W "/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <s v="Debra Finley"/>
+    <s v="Ohio"/>
+    <d v="2017-08-31T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W04"/>
+    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <n v="12"/>
+    <n v="18"/>
+    <n v="216"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <s v="Molly Grant"/>
+    <s v="Virginia"/>
+    <d v="2017-09-02T00:00:00"/>
+    <x v="3"/>
+    <s v="KE13W04"/>
+    <s v="K-Eco Energy Bulbs 13W (4-pack)"/>
+    <n v="7"/>
+    <n v="16.55"/>
+    <n v="115.85000000000001"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <s v="Roanna Acevedo"/>
+    <s v="Florida"/>
+    <d v="2017-09-06T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL600"/>
+    <s v="K-Eco Blast 600"/>
+    <n v="9"/>
+    <n v="1034"/>
+    <n v="9306"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <s v="Clementine Oliver"/>
+    <s v="Kansas"/>
+    <d v="2017-09-07T00:00:00"/>
+    <x v="0"/>
+    <s v="KE300"/>
+    <s v="K-Eco 300"/>
+    <n v="10"/>
+    <n v="531"/>
+    <n v="5310"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <s v="Eagan Bray"/>
+    <s v="Pennsylvania"/>
+    <d v="2017-09-08T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W08"/>
+    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <n v="4"/>
+    <n v="14.4"/>
+    <n v="57.6"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <s v="Rae Hawkins"/>
+    <s v="Massachusetts"/>
+    <d v="2017-09-13T00:00:00"/>
+    <x v="2"/>
+    <s v="KE12Li"/>
+    <s v="K-Eco 12-volt Lithium-ion solar backup battery"/>
+    <n v="18"/>
+    <n v="4509"/>
+    <n v="81162"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <s v="Melinda Price"/>
+    <s v="Texas"/>
+    <d v="2017-09-16T00:00:00"/>
+    <x v="0"/>
+    <s v="KE001"/>
+    <s v="K-Eco phone charger"/>
+    <n v="8"/>
+    <n v="18.850000000000001"/>
+    <n v="150.80000000000001"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <s v="Ronan Mendez"/>
+    <s v="Wisconsin"/>
+    <d v="2017-09-17T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL800"/>
+    <s v="K-Eco Blast 800"/>
+    <n v="4"/>
+    <n v="1282"/>
+    <n v="5128"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <s v="Shellie Velez"/>
+    <s v="Ohio"/>
+    <d v="2017-09-28T00:00:00"/>
+    <x v="0"/>
+    <s v="KE625"/>
+    <s v="K-Eco 625"/>
+    <n v="3"/>
+    <n v="1201.23"/>
+    <n v="3603.69"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <s v="Theodore Brock"/>
+    <s v="New York"/>
+    <d v="2017-09-28T00:00:00"/>
+    <x v="0"/>
+    <s v="KE5"/>
+    <s v="K-Eco Mini "/>
+    <n v="7"/>
+    <n v="43.95"/>
+    <n v="307.65000000000003"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <s v="Lucas Trevino"/>
+    <s v="Minnesota"/>
+    <d v="2017-09-29T00:00:00"/>
+    <x v="0"/>
+    <s v="KE450"/>
+    <s v="K-Eco 450"/>
+    <n v="15"/>
+    <n v="797.5"/>
+    <n v="11962.5"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <s v="Rhonda Wilder"/>
+    <s v="Kentucky"/>
+    <d v="2017-10-01T00:00:00"/>
+    <x v="0"/>
+    <s v="KE180"/>
+    <s v="K-Eco 180"/>
+    <n v="9"/>
+    <n v="324"/>
+    <n v="2916"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <s v="Ayanna Foreman"/>
+    <s v="California"/>
+    <d v="2017-10-03T00:00:00"/>
+    <x v="1"/>
+    <s v="KI7K"/>
+    <s v="K-Invert 7K"/>
+    <n v="13"/>
+    <n v="10718"/>
+    <n v="139334"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <s v="Jael Rice"/>
+    <s v="California"/>
+    <d v="2017-10-04T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W"/>
+    <s v="K-Eco Energy Bulbs 23W "/>
+    <n v="15"/>
+    <n v="13.8"/>
+    <n v="207"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <s v="Brock Case"/>
+    <s v="Virginia"/>
+    <d v="2017-10-05T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL1200"/>
+    <s v="K-Eco Blast 1200"/>
+    <n v="8"/>
+    <n v="2310"/>
+    <n v="18480"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <s v="Chester Best"/>
+    <s v="Minnesota"/>
+    <d v="2017-10-08T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W"/>
+    <s v="K-Eco Energy Bulbs 23W "/>
+    <n v="7"/>
+    <n v="13.8"/>
+    <n v="96.600000000000009"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <s v="Guy Ochoa"/>
+    <s v="Michigan"/>
+    <d v="2017-10-10T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAA12"/>
+    <s v="K-Eco AA  NiMH rechargeable batteries (12-pack)"/>
+    <n v="17"/>
+    <n v="18.5"/>
+    <n v="314.5"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <s v="Dustin Daugherty"/>
+    <s v="Iowa"/>
+    <d v="2017-10-12T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W04"/>
+    <s v="K-Eco Energy Bulbs 20W (4-pack)"/>
+    <n v="12"/>
+    <n v="14.45"/>
+    <n v="173.39999999999998"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <s v="Indira Odom"/>
+    <s v="Minnesota"/>
+    <d v="2017-10-12T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH08"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (8-pack)"/>
+    <n v="13"/>
+    <n v="37.18"/>
+    <n v="483.34"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <s v="Rhona Stanley"/>
+    <s v="California"/>
+    <d v="2017-10-13T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL100"/>
+    <s v="K-Eco Blast 100"/>
+    <n v="15"/>
+    <n v="289"/>
+    <n v="4335"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <s v="Amena Petersen"/>
+    <s v="New York"/>
+    <d v="2017-10-17T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL200"/>
+    <s v="K-Eco Blast 200"/>
+    <n v="13"/>
+    <n v="558"/>
+    <n v="7254"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <s v="Kenneth Potts"/>
+    <s v="Montana"/>
+    <d v="2017-10-18T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL400"/>
+    <s v="K-Eco Blast 400"/>
+    <n v="10"/>
+    <n v="886"/>
+    <n v="8860"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <s v="Yoko Travis"/>
+    <s v="North Carolina"/>
+    <d v="2017-10-18T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W"/>
+    <s v="K-Eco Energy Bulbs 23W "/>
+    <n v="3"/>
+    <n v="13.8"/>
+    <n v="41.400000000000006"/>
+  </r>
+  <r>
+    <n v="114"/>
+    <s v="Hunter Newton"/>
+    <s v="Texas"/>
+    <d v="2017-10-18T00:00:00"/>
+    <x v="1"/>
+    <s v="KI2K"/>
+    <s v="K-Invert 2K"/>
+    <n v="8"/>
+    <n v="3064"/>
+    <n v="24512"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <s v="Rose Holcomb"/>
+    <s v="Georgia"/>
+    <d v="2017-10-18T00:00:00"/>
+    <x v="1"/>
+    <s v="KI4K"/>
+    <s v="K-Invert 4K"/>
+    <n v="7"/>
+    <n v="6127"/>
+    <n v="42889"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <s v="Melinda Price"/>
+    <s v="Texas"/>
+    <d v="2017-10-19T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL400"/>
+    <s v="K-Eco Blast 400"/>
+    <n v="4"/>
+    <n v="882"/>
+    <n v="3528"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <s v="Mollie Meyers"/>
+    <s v="Texas"/>
+    <d v="2017-10-19T00:00:00"/>
+    <x v="3"/>
+    <s v="KE9W"/>
+    <s v="K-Eco Energy Bulbs 9W "/>
+    <n v="9"/>
+    <n v="12"/>
+    <n v="108"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <s v="Chastity Charles"/>
+    <s v="Alabama"/>
+    <d v="2017-10-21T00:00:00"/>
+    <x v="0"/>
+    <s v="KE001"/>
+    <s v="K-Eco phone charger"/>
+    <n v="12"/>
+    <n v="17.850000000000001"/>
+    <n v="214.20000000000002"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <s v="Savannah Conner"/>
+    <s v="North Carolina"/>
+    <d v="2017-10-21T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH12"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (12-pack)"/>
+    <n v="15"/>
+    <n v="47.92"/>
+    <n v="718.80000000000007"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <s v="Tyrone Powell"/>
+    <s v="Indiana"/>
+    <d v="2017-10-24T00:00:00"/>
+    <x v="0"/>
+    <s v="KE180"/>
+    <s v="K-Eco 180"/>
+    <n v="14"/>
+    <n v="320"/>
+    <n v="4480"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <s v="Chastity Charles"/>
+    <s v="Alabama"/>
+    <d v="2017-10-28T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W"/>
+    <s v="K-Eco Energy Bulbs 20W "/>
+    <n v="17"/>
+    <n v="9.65"/>
+    <n v="164.05"/>
+  </r>
+  <r>
+    <n v="122"/>
+    <s v="Joshua Delaney"/>
+    <s v="Oklahoma"/>
+    <d v="2017-11-02T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAAA06"/>
+    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <n v="7"/>
+    <n v="9.5"/>
+    <n v="66.5"/>
+  </r>
+  <r>
+    <n v="123"/>
+    <s v="Raja Wells"/>
+    <s v="District of Columbia"/>
+    <d v="2017-11-09T00:00:00"/>
+    <x v="0"/>
+    <s v="KE200"/>
+    <s v="K-Eco 200"/>
+    <n v="14"/>
+    <n v="360"/>
+    <n v="5040"/>
+  </r>
+  <r>
+    <n v="124"/>
+    <s v="Coby Lucas"/>
+    <s v="Tennessee"/>
+    <d v="2017-11-11T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL100"/>
+    <s v="K-Eco Blast 100"/>
+    <n v="14"/>
+    <n v="281"/>
+    <n v="3934"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <s v="Rae Hawkins"/>
+    <s v="Massachusetts"/>
+    <d v="2017-11-12T00:00:00"/>
+    <x v="0"/>
+    <s v="KE200"/>
+    <s v="K-Eco 200"/>
+    <n v="8"/>
+    <n v="351"/>
+    <n v="2808"/>
+  </r>
+  <r>
+    <n v="126"/>
+    <s v="Nolan Slater"/>
+    <s v="Nevada"/>
+    <d v="2017-11-13T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBR5"/>
+    <s v="K-Eco Breeze Mini "/>
+    <n v="16"/>
+    <n v="59"/>
+    <n v="944"/>
+  </r>
+  <r>
+    <n v="127"/>
+    <s v="Zena Washington"/>
+    <s v="California"/>
+    <d v="2017-11-17T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH01"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+    <n v="14"/>
+    <n v="11.25"/>
+    <n v="157.5"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <s v="Calvin Henry"/>
+    <s v="Florida"/>
+    <d v="2017-11-19T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAA12"/>
+    <s v="K-Eco AA  NiMH rechargeable batteries (12-pack)"/>
+    <n v="10"/>
+    <n v="18.5"/>
+    <n v="185"/>
+  </r>
+  <r>
+    <n v="129"/>
+    <s v="Rebekah Nelson"/>
+    <s v="New York"/>
+    <d v="2017-11-26T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL600"/>
+    <s v="K-Eco Blast 600"/>
+    <n v="17"/>
+    <n v="1032"/>
+    <n v="17544"/>
+  </r>
+  <r>
+    <n v="130"/>
+    <s v="Clementine Oliver"/>
+    <s v="Kansas"/>
+    <d v="2017-11-29T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W08"/>
+    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <n v="10"/>
+    <n v="14.4"/>
+    <n v="144"/>
+  </r>
+  <r>
+    <n v="131"/>
+    <s v="Molly Grant"/>
+    <s v="Virginia"/>
+    <d v="2017-12-04T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH12"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (12-pack)"/>
+    <n v="11"/>
+    <n v="44.92"/>
+    <n v="494.12"/>
+  </r>
+  <r>
+    <n v="132"/>
+    <s v="Brock Case"/>
+    <s v="Virginia"/>
+    <d v="2017-12-11T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAAA06"/>
+    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <n v="7"/>
+    <n v="9.5"/>
+    <n v="66.5"/>
+  </r>
+  <r>
+    <n v="133"/>
+    <s v="Joshua Delaney"/>
+    <s v="Oklahoma"/>
+    <d v="2017-12-11T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAA06"/>
+    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <n v="9"/>
+    <n v="11.35"/>
+    <n v="102.14999999999999"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <s v="Calvin Henry"/>
+    <s v="Florida"/>
+    <d v="2017-12-11T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBR5"/>
+    <s v="K-Eco Breeze Mini "/>
+    <n v="2"/>
+    <n v="56"/>
+    <n v="112"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <s v="Benjamin Miranda"/>
+    <s v="Florida"/>
+    <d v="2017-12-16T00:00:00"/>
+    <x v="0"/>
+    <s v="KE200"/>
+    <s v="K-Eco 200"/>
+    <n v="17"/>
+    <n v="351"/>
+    <n v="5967"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <s v="Wesley Rush"/>
+    <s v="Texas"/>
+    <d v="2017-12-19T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W"/>
+    <s v="K-Eco Energy Bulbs 20W "/>
+    <n v="13"/>
+    <n v="11.65"/>
+    <n v="151.45000000000002"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <s v="Erasmus Neal"/>
+    <s v="California"/>
+    <d v="2017-12-25T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL200"/>
+    <s v="K-Eco Blast 200"/>
+    <n v="12"/>
+    <n v="559"/>
+    <n v="6708"/>
+  </r>
+  <r>
+    <n v="138"/>
+    <s v="Lucas Trevino"/>
+    <s v="Minnesota"/>
+    <d v="2018-01-02T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W08"/>
+    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <n v="8"/>
+    <n v="14.4"/>
+    <n v="115.2"/>
+  </r>
+  <r>
+    <n v="139"/>
+    <s v="Zena Washington"/>
+    <s v="California"/>
+    <d v="2018-01-05T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH08"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (8-pack)"/>
+    <n v="7"/>
+    <n v="37.18"/>
+    <n v="260.26"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <s v="Brody Love"/>
+    <s v="California"/>
+    <d v="2018-01-11T00:00:00"/>
+    <x v="3"/>
+    <s v="KE9W08"/>
+    <s v="K-Eco Energy Bulbs 9W  (8-pack)"/>
+    <n v="16"/>
+    <n v="14.5"/>
+    <n v="232"/>
+  </r>
+  <r>
+    <n v="141"/>
+    <s v="Eric Donaldson"/>
+    <s v="Florida"/>
+    <d v="2018-01-12T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAAA12"/>
+    <s v="K-Eco  AAA NiMH rechargeable batteries (12-pack)"/>
+    <n v="13"/>
+    <n v="14.8"/>
+    <n v="192.4"/>
+  </r>
+  <r>
+    <n v="142"/>
+    <s v="Molly Grant"/>
+    <s v="Virginia"/>
+    <d v="2018-01-15T00:00:00"/>
+    <x v="1"/>
+    <s v="KI20K"/>
+    <s v="K-Invert 20K"/>
+    <n v="4"/>
+    <n v="44006"/>
+    <n v="176024"/>
+  </r>
+  <r>
+    <n v="143"/>
+    <s v="Merrill Freeman"/>
+    <s v="Connecticut"/>
+    <d v="2018-01-16T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W04"/>
+    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <n v="14"/>
+    <n v="15"/>
+    <n v="210"/>
+  </r>
+  <r>
+    <n v="144"/>
+    <s v="Quail Vance"/>
+    <s v="Iowa"/>
+    <d v="2018-01-19T00:00:00"/>
+    <x v="3"/>
+    <s v="KE9W"/>
+    <s v="K-Eco Energy Bulbs 9W "/>
+    <n v="17"/>
+    <n v="4"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <n v="145"/>
+    <s v="Dorian Dale"/>
+    <s v="Michigan"/>
+    <d v="2018-01-26T00:00:00"/>
+    <x v="0"/>
+    <s v="KE200"/>
+    <s v="K-Eco 200"/>
+    <n v="14"/>
+    <n v="351"/>
+    <n v="4914"/>
+  </r>
+  <r>
+    <n v="146"/>
+    <s v="Serena Malone"/>
+    <s v="California"/>
+    <d v="2018-01-26T00:00:00"/>
+    <x v="2"/>
+    <s v="KE48Li"/>
+    <s v="K-Eco 48-volt Lithium-ion solar backup battery"/>
+    <n v="9"/>
+    <n v="13242"/>
+    <n v="119178"/>
+  </r>
+  <r>
+    <n v="147"/>
+    <s v="Tyrone Powell"/>
+    <s v="Indiana"/>
+    <d v="2018-01-26T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH04"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (4-pack)"/>
+    <n v="14"/>
+    <n v="21.03"/>
+    <n v="294.42"/>
+  </r>
+  <r>
+    <n v="148"/>
+    <s v="Arden Bennett"/>
+    <s v="Louisiana"/>
+    <d v="2018-02-08T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W08"/>
+    <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+    <n v="17"/>
+    <n v="26.5"/>
+    <n v="450.5"/>
+  </r>
+  <r>
+    <n v="149"/>
+    <s v="Lunea Rios"/>
+    <s v="Maryland"/>
+    <d v="2018-02-09T00:00:00"/>
+    <x v="3"/>
+    <s v="KE9W"/>
+    <s v="K-Eco Energy Bulbs 9W "/>
+    <n v="9"/>
+    <n v="12"/>
+    <n v="108"/>
+  </r>
+  <r>
+    <n v="150"/>
+    <s v="Raja Wells"/>
+    <s v="District of Columbia"/>
+    <d v="2018-02-10T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH08"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (8-pack)"/>
+    <n v="15"/>
+    <n v="42.18"/>
+    <n v="632.70000000000005"/>
+  </r>
+  <r>
+    <n v="151"/>
+    <s v="Joshua Delaney"/>
+    <s v="Oklahoma"/>
+    <d v="2018-02-12T00:00:00"/>
+    <x v="0"/>
+    <s v="KE625"/>
+    <s v="K-Eco 625"/>
+    <n v="5"/>
+    <n v="1204.23"/>
+    <n v="6021.15"/>
+  </r>
+  <r>
+    <n v="152"/>
+    <s v="Wesley Rush"/>
+    <s v="Texas"/>
+    <d v="2018-02-14T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL100"/>
+    <s v="K-Eco Blast 100"/>
+    <n v="1"/>
+    <n v="285"/>
+    <n v="285"/>
+  </r>
+  <r>
+    <n v="153"/>
+    <s v="Coby Lucas"/>
+    <s v="Tennessee"/>
+    <d v="2018-02-22T00:00:00"/>
+    <x v="0"/>
+    <s v="KE225"/>
+    <s v="K-Eco 225"/>
+    <n v="14"/>
+    <n v="391"/>
+    <n v="5474"/>
+  </r>
+  <r>
+    <n v="154"/>
+    <s v="Shay Davidson"/>
+    <s v="Texas"/>
+    <d v="2018-02-22T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W"/>
+    <s v="K-Eco Energy Bulbs 23W "/>
+    <n v="15"/>
+    <n v="13.8"/>
+    <n v="207"/>
+  </r>
+  <r>
+    <n v="155"/>
+    <s v="Zena Washington"/>
+    <s v="California"/>
+    <d v="2018-02-22T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH01"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+    <n v="11"/>
+    <n v="11.25"/>
+    <n v="123.75"/>
+  </r>
+  <r>
+    <n v="156"/>
+    <s v="Ronan Mendez"/>
+    <s v="Wisconsin"/>
+    <d v="2018-02-23T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL200"/>
+    <s v="K-Eco Blast 200"/>
+    <n v="13"/>
+    <n v="559"/>
+    <n v="7267"/>
+  </r>
+  <r>
+    <n v="157"/>
+    <s v="Joshua Delaney"/>
+    <s v="Oklahoma"/>
+    <d v="2018-02-23T00:00:00"/>
+    <x v="3"/>
+    <s v="KE9W04"/>
+    <s v="K-Eco Energy Bulbs 9W (4-pack)"/>
+    <n v="6"/>
+    <n v="8.1999999999999993"/>
+    <n v="49.199999999999996"/>
+  </r>
+  <r>
+    <n v="158"/>
+    <s v="Molly Grant"/>
+    <s v="Virginia"/>
+    <d v="2018-02-24T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAA12"/>
+    <s v="K-Eco AA  NiMH rechargeable batteries (12-pack)"/>
+    <n v="4"/>
+    <n v="18.5"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <n v="159"/>
+    <s v="Eagan Bray"/>
+    <s v="Pennsylvania"/>
+    <d v="2018-03-11T00:00:00"/>
+    <x v="2"/>
+    <s v="KE36Li"/>
+    <s v="K-Eco 36-volt Lithium-ion solar backup battery"/>
+    <n v="7"/>
+    <n v="7510"/>
+    <n v="52570"/>
+  </r>
+  <r>
+    <n v="160"/>
+    <s v="Molly Grant"/>
+    <s v="Virginia"/>
+    <d v="2018-03-11T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W04"/>
+    <s v="K-Eco Energy Bulbs 20W (4-pack)"/>
+    <n v="11"/>
+    <n v="14.45"/>
+    <n v="158.94999999999999"/>
+  </r>
+  <r>
+    <n v="161"/>
+    <s v="Amery Washington"/>
+    <s v="Illinois"/>
+    <d v="2018-03-12T00:00:00"/>
+    <x v="0"/>
+    <s v="KE180"/>
+    <s v="K-Eco 180"/>
+    <n v="9"/>
+    <n v="320"/>
+    <n v="2880"/>
+  </r>
+  <r>
+    <n v="162"/>
+    <s v="Guy Ochoa"/>
+    <s v="Michigan"/>
+    <d v="2018-03-14T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL1200"/>
+    <s v="K-Eco Blast 1200"/>
+    <n v="13"/>
+    <n v="2310"/>
+    <n v="30030"/>
+  </r>
+  <r>
+    <n v="163"/>
+    <s v="Derek Conrad"/>
+    <s v="Colorado"/>
+    <d v="2018-03-17T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH12"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (12-pack)"/>
+    <n v="15"/>
+    <n v="47.92"/>
+    <n v="718.80000000000007"/>
+  </r>
+  <r>
+    <n v="164"/>
+    <s v="Jerry Gill"/>
+    <s v="Alabama"/>
+    <d v="2018-03-17T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH04"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (4-pack)"/>
+    <n v="16"/>
+    <n v="29.03"/>
+    <n v="464.48"/>
+  </r>
+  <r>
+    <n v="165"/>
+    <s v="Coby Lucas"/>
+    <s v="Tennessee"/>
+    <d v="2018-03-18T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W08"/>
+    <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+    <n v="7"/>
+    <n v="20.5"/>
+    <n v="143.5"/>
+  </r>
+  <r>
+    <n v="166"/>
+    <s v="Theodore Brock"/>
+    <s v="New York"/>
+    <d v="2018-03-22T00:00:00"/>
+    <x v="3"/>
+    <s v="KE13W"/>
+    <s v="K-Eco Energy Bulbs 13W "/>
+    <n v="12"/>
+    <n v="5.24"/>
+    <n v="62.88"/>
+  </r>
+  <r>
+    <n v="167"/>
+    <s v="Yoko Travis"/>
+    <s v="North Carolina"/>
+    <d v="2018-03-23T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAAA06"/>
+    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <n v="18"/>
+    <n v="16.5"/>
+    <n v="297"/>
+  </r>
+  <r>
+    <n v="168"/>
+    <s v="Wesley Rush"/>
+    <s v="Texas"/>
+    <d v="2018-03-23T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL600"/>
+    <s v="K-Eco Blast 600"/>
+    <n v="15"/>
+    <n v="1034"/>
+    <n v="15510"/>
+  </r>
+  <r>
+    <n v="169"/>
+    <s v="Rhonda Wilder"/>
+    <s v="Kentucky"/>
+    <d v="2018-03-27T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH12"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (12-pack)"/>
+    <n v="18"/>
+    <n v="45.92"/>
+    <n v="826.56000000000006"/>
+  </r>
+  <r>
+    <n v="170"/>
+    <s v="Cally Reynolds"/>
+    <s v="North Dakota"/>
+    <d v="2018-04-03T00:00:00"/>
+    <x v="3"/>
+    <s v="KE9W"/>
+    <s v="K-Eco Energy Bulbs 9W "/>
+    <n v="16"/>
+    <n v="9"/>
+    <n v="144"/>
+  </r>
+  <r>
+    <n v="171"/>
+    <s v="Clementine Oliver"/>
+    <s v="Kansas"/>
+    <d v="2018-04-04T00:00:00"/>
+    <x v="2"/>
+    <s v="KE18Li"/>
+    <s v="K-Eco 18-volt Lithium-ion solar backup battery"/>
+    <n v="15"/>
+    <n v="5201"/>
+    <n v="78015"/>
+  </r>
+  <r>
+    <n v="172"/>
+    <s v="Ronan Mendez"/>
+    <s v="Wisconsin"/>
+    <d v="2018-04-06T00:00:00"/>
+    <x v="0"/>
+    <s v="KE001"/>
+    <s v="K-Eco phone charger"/>
+    <n v="6"/>
+    <n v="23.85"/>
+    <n v="143.10000000000002"/>
+  </r>
+  <r>
+    <n v="173"/>
+    <s v="Astra Edwards"/>
+    <s v="New York"/>
+    <d v="2018-04-09T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W08"/>
+    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <n v="10"/>
+    <n v="14.4"/>
+    <n v="144"/>
+  </r>
+  <r>
+    <n v="174"/>
+    <s v="Rhonda Wilder"/>
+    <s v="Kentucky"/>
+    <d v="2018-04-10T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAA06"/>
+    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <n v="10"/>
+    <n v="11.35"/>
+    <n v="113.5"/>
+  </r>
+  <r>
+    <n v="175"/>
+    <s v="Arden Bennett"/>
+    <s v="Louisiana"/>
+    <d v="2018-04-14T00:00:00"/>
+    <x v="2"/>
+    <s v="KE12Li"/>
+    <s v="K-Eco 12-volt Lithium-ion solar backup battery"/>
+    <n v="5"/>
+    <n v="4509"/>
+    <n v="22545"/>
+  </r>
+  <r>
+    <n v="176"/>
+    <s v="Debra Finley"/>
+    <s v="Ohio"/>
+    <d v="2018-04-24T00:00:00"/>
+    <x v="1"/>
+    <s v="KI2K"/>
+    <s v="K-Invert 2K"/>
+    <n v="8"/>
+    <n v="3064"/>
+    <n v="24512"/>
+  </r>
+  <r>
+    <n v="177"/>
+    <s v="Eric Donaldson"/>
+    <s v="Florida"/>
+    <d v="2018-04-28T00:00:00"/>
+    <x v="3"/>
+    <s v="KE9W"/>
+    <s v="K-Eco Energy Bulbs 9W "/>
+    <n v="1"/>
+    <n v="7"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="178"/>
+    <s v="Zephr Mcgee"/>
+    <s v="Pennsylvania"/>
+    <d v="2018-04-29T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAAA12"/>
+    <s v="K-Eco  AAA NiMH rechargeable batteries (12-pack)"/>
+    <n v="17"/>
+    <n v="18.8"/>
+    <n v="319.60000000000002"/>
+  </r>
+  <r>
+    <n v="179"/>
+    <s v="Brock Case"/>
+    <s v="Virginia"/>
+    <d v="2018-05-02T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W08"/>
+    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <n v="5"/>
+    <n v="14.4"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <s v="Merrill Freeman"/>
+    <s v="Connecticut"/>
+    <d v="2018-05-02T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W04"/>
+    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <n v="1"/>
+    <n v="16"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <n v="181"/>
+    <s v="Ronan Mendez"/>
+    <s v="Wisconsin"/>
+    <d v="2018-05-03T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W04"/>
+    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <n v="18"/>
+    <n v="18"/>
+    <n v="324"/>
+  </r>
+  <r>
+    <n v="182"/>
+    <s v="Benjamin Miranda"/>
+    <s v="Florida"/>
+    <d v="2018-05-04T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAA06"/>
+    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <n v="18"/>
+    <n v="8.35"/>
+    <n v="150.29999999999998"/>
+  </r>
+  <r>
+    <n v="183"/>
+    <s v="Ayanna Foreman"/>
+    <s v="California"/>
+    <d v="2018-05-05T00:00:00"/>
+    <x v="0"/>
+    <s v="KE200"/>
+    <s v="K-Eco 200"/>
+    <n v="10"/>
+    <n v="360"/>
+    <n v="3600"/>
+  </r>
+  <r>
+    <n v="184"/>
+    <s v="Cally Reynolds"/>
+    <s v="North Dakota"/>
+    <d v="2018-05-10T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W08"/>
+    <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+    <n v="11"/>
+    <n v="27.5"/>
+    <n v="302.5"/>
+  </r>
+  <r>
+    <n v="185"/>
+    <s v="Serena Malone"/>
+    <s v="California"/>
+    <d v="2018-05-11T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBR5"/>
+    <s v="K-Eco Breeze Mini "/>
+    <n v="16"/>
+    <n v="56"/>
+    <n v="896"/>
+  </r>
+  <r>
+    <n v="186"/>
+    <s v="Calvin Henry"/>
+    <s v="Florida"/>
+    <d v="2018-05-11T00:00:00"/>
+    <x v="1"/>
+    <s v="KI7K"/>
+    <s v="K-Invert 7K"/>
+    <n v="7"/>
+    <n v="10714"/>
+    <n v="74998"/>
+  </r>
+  <r>
+    <n v="187"/>
+    <s v="Hedy Vang"/>
+    <s v="California"/>
+    <d v="2018-05-12T00:00:00"/>
+    <x v="1"/>
+    <s v="KI9K"/>
+    <s v="K-Invert 9K"/>
+    <n v="5"/>
+    <n v="19806"/>
+    <n v="99030"/>
+  </r>
+  <r>
+    <n v="188"/>
+    <s v="Sade Santiago"/>
+    <s v="Alaska"/>
+    <d v="2018-05-14T00:00:00"/>
+    <x v="0"/>
+    <s v="KE325"/>
+    <s v="K-Eco 325"/>
+    <n v="3"/>
+    <n v="576.75"/>
+    <n v="1730.25"/>
+  </r>
+  <r>
+    <n v="189"/>
+    <s v="Kenneth Potts"/>
+    <s v="Montana"/>
+    <d v="2018-05-14T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH01"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+    <n v="1"/>
+    <n v="11.25"/>
+    <n v="11.25"/>
+  </r>
+  <r>
+    <n v="190"/>
+    <s v="Francesca Hodges"/>
+    <s v="Iowa"/>
+    <d v="2018-05-14T00:00:00"/>
+    <x v="1"/>
+    <s v="KI2K"/>
+    <s v="K-Invert 2K"/>
+    <n v="8"/>
+    <n v="3066"/>
+    <n v="24528"/>
+  </r>
+  <r>
+    <n v="191"/>
+    <s v="Nolan Slater"/>
+    <s v="Nevada"/>
+    <d v="2018-05-19T00:00:00"/>
+    <x v="0"/>
+    <s v="KE450"/>
+    <s v="K-Eco 450"/>
+    <n v="11"/>
+    <n v="797.5"/>
+    <n v="8772.5"/>
+  </r>
+  <r>
+    <n v="192"/>
+    <s v="Tyrone Powell"/>
+    <s v="Indiana"/>
+    <d v="2018-05-19T00:00:00"/>
+    <x v="1"/>
+    <s v="KI9K"/>
+    <s v="K-Invert 9K"/>
+    <n v="11"/>
+    <n v="19803"/>
+    <n v="217833"/>
+  </r>
+  <r>
+    <n v="193"/>
+    <s v="Adara Langley"/>
+    <s v="California"/>
+    <d v="2018-05-20T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL600"/>
+    <s v="K-Eco Blast 600"/>
+    <n v="1"/>
+    <n v="1032"/>
+    <n v="1032"/>
+  </r>
+  <r>
+    <n v="194"/>
+    <s v="Raja Wells"/>
+    <s v="District of Columbia"/>
+    <d v="2018-05-22T00:00:00"/>
+    <x v="0"/>
+    <s v="KE625"/>
+    <s v="K-Eco 625"/>
+    <n v="3"/>
+    <n v="1201.23"/>
+    <n v="3603.69"/>
+  </r>
+  <r>
+    <n v="195"/>
+    <s v="Benjamin Miranda"/>
+    <s v="Florida"/>
+    <d v="2018-05-29T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL800"/>
+    <s v="K-Eco Blast 800"/>
+    <n v="12"/>
+    <n v="1282"/>
+    <n v="15384"/>
+  </r>
+  <r>
+    <n v="196"/>
+    <s v="Hunter Newton"/>
+    <s v="Texas"/>
+    <d v="2018-06-02T00:00:00"/>
+    <x v="2"/>
+    <s v="KE36Li"/>
+    <s v="K-Eco 36-volt Lithium-ion solar backup battery"/>
+    <n v="12"/>
+    <n v="7510"/>
+    <n v="90120"/>
+  </r>
+  <r>
+    <n v="197"/>
+    <s v="Brock Case"/>
+    <s v="Virginia"/>
+    <d v="2018-06-05T00:00:00"/>
+    <x v="0"/>
+    <s v="KE625"/>
+    <s v="K-Eco 625"/>
+    <n v="1"/>
+    <n v="1201.23"/>
+    <n v="1201.23"/>
+  </r>
+  <r>
+    <n v="198"/>
+    <s v="Shellie Velez"/>
+    <s v="Ohio"/>
+    <d v="2018-06-05T00:00:00"/>
+    <x v="1"/>
+    <s v="KI13K"/>
+    <s v="K-Invert 13K"/>
+    <n v="18"/>
+    <n v="28604"/>
+    <n v="514872"/>
+  </r>
+  <r>
+    <n v="199"/>
+    <s v="Jael Rice"/>
+    <s v="California"/>
+    <d v="2018-06-09T00:00:00"/>
+    <x v="0"/>
+    <s v="KE250X"/>
+    <s v="K-Eco 250x (same power, smaller footprint)"/>
+    <n v="12"/>
+    <n v="660"/>
+    <n v="7920"/>
+  </r>
+  <r>
+    <n v="200"/>
+    <s v="Blaine Ashley"/>
+    <s v="North Carolina"/>
+    <d v="2018-06-12T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W04"/>
+    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <n v="12"/>
+    <n v="19"/>
+    <n v="228"/>
+  </r>
+  <r>
+    <n v="201"/>
+    <s v="Oleg Merritt"/>
+    <s v="California"/>
+    <d v="2018-06-13T00:00:00"/>
+    <x v="0"/>
+    <s v="KE450"/>
+    <s v="K-Eco 450"/>
+    <n v="17"/>
+    <n v="796.5"/>
+    <n v="13540.5"/>
+  </r>
+  <r>
+    <n v="202"/>
+    <s v="Benjamin Miranda"/>
+    <s v="Florida"/>
+    <d v="2018-06-16T00:00:00"/>
+    <x v="0"/>
+    <s v="KE001"/>
+    <s v="K-Eco phone charger"/>
+    <n v="6"/>
+    <n v="17.850000000000001"/>
+    <n v="107.10000000000001"/>
+  </r>
+  <r>
+    <n v="203"/>
+    <s v="Leslie Pace"/>
+    <s v="Texas"/>
+    <d v="2018-06-17T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL1200"/>
+    <s v="K-Eco Blast 1200"/>
+    <n v="7"/>
+    <n v="2310"/>
+    <n v="16170"/>
+  </r>
+  <r>
+    <n v="204"/>
+    <s v="Rae Hawkins"/>
+    <s v="Massachusetts"/>
+    <d v="2018-06-17T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W"/>
+    <s v="K-Eco Energy Bulbs 20W "/>
+    <n v="17"/>
+    <n v="11.65"/>
+    <n v="198.05"/>
+  </r>
+  <r>
+    <n v="205"/>
+    <s v="Lunea Rios"/>
+    <s v="Maryland"/>
+    <d v="2018-06-23T00:00:00"/>
+    <x v="0"/>
+    <s v="KE700"/>
+    <s v="K-Eco 700"/>
+    <n v="13"/>
+    <n v="1504"/>
+    <n v="19552"/>
+  </r>
+  <r>
+    <n v="206"/>
+    <s v="Jaime Craig"/>
+    <s v="Ohio"/>
+    <d v="2018-06-23T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAA12"/>
+    <s v="K-Eco AA  NiMH rechargeable batteries (12-pack)"/>
+    <n v="7"/>
+    <n v="18.5"/>
+    <n v="129.5"/>
+  </r>
+  <r>
+    <n v="207"/>
+    <s v="Merrill Freeman"/>
+    <s v="Connecticut"/>
+    <d v="2018-06-25T00:00:00"/>
+    <x v="0"/>
+    <s v="KE250"/>
+    <s v="K-Eco 250"/>
+    <n v="4"/>
+    <n v="442.5"/>
+    <n v="1770"/>
+  </r>
+  <r>
+    <n v="208"/>
+    <s v="Rose Holcomb"/>
+    <s v="Georgia"/>
+    <d v="2018-06-25T00:00:00"/>
+    <x v="1"/>
+    <s v="KI7K"/>
+    <s v="K-Invert 7K"/>
+    <n v="15"/>
+    <n v="10718"/>
+    <n v="160770"/>
+  </r>
+  <r>
+    <n v="209"/>
+    <s v="Tyrone Powell"/>
+    <s v="Indiana"/>
+    <d v="2018-07-01T00:00:00"/>
+    <x v="0"/>
+    <s v="KE001"/>
+    <s v="K-Eco phone charger"/>
+    <n v="6"/>
+    <n v="18.850000000000001"/>
+    <n v="113.10000000000001"/>
+  </r>
+  <r>
+    <n v="210"/>
+    <s v="Jael Rice"/>
+    <s v="California"/>
+    <d v="2018-07-06T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W08"/>
+    <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+    <n v="18"/>
+    <n v="20.5"/>
+    <n v="369"/>
+  </r>
+  <r>
+    <n v="211"/>
+    <s v="Lunea Rios"/>
+    <s v="Maryland"/>
+    <d v="2018-07-11T00:00:00"/>
+    <x v="3"/>
+    <s v="KE9W08"/>
+    <s v="K-Eco Energy Bulbs 9W  (8-pack)"/>
+    <n v="1"/>
+    <n v="16.5"/>
+    <n v="16.5"/>
+  </r>
+  <r>
+    <n v="212"/>
+    <s v="Mollie Meyers"/>
+    <s v="Texas"/>
+    <d v="2018-07-14T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL200"/>
+    <s v="K-Eco Blast 200"/>
+    <n v="15"/>
+    <n v="558"/>
+    <n v="8370"/>
+  </r>
+  <r>
+    <n v="213"/>
+    <s v="Cailin Alford"/>
+    <s v="North Carolina"/>
+    <d v="2018-07-15T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH01"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+    <n v="5"/>
+    <n v="7.25"/>
+    <n v="36.25"/>
+  </r>
+  <r>
+    <n v="214"/>
+    <s v="Nicole Mcconnell"/>
+    <s v="California"/>
+    <d v="2018-07-16T00:00:00"/>
+    <x v="0"/>
+    <s v="KE275"/>
+    <s v="K-Eco 275"/>
+    <n v="6"/>
+    <n v="488.25"/>
+    <n v="2929.5"/>
+  </r>
+  <r>
+    <n v="215"/>
+    <s v="Amery Washington"/>
+    <s v="Illinois"/>
+    <d v="2018-07-17T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W"/>
+    <s v="K-Eco Energy Bulbs 23W "/>
+    <n v="11"/>
+    <n v="13.8"/>
+    <n v="151.80000000000001"/>
+  </r>
+  <r>
+    <n v="216"/>
+    <s v="Guy Ochoa"/>
+    <s v="Michigan"/>
+    <d v="2018-07-18T00:00:00"/>
+    <x v="0"/>
+    <s v="KE180"/>
+    <s v="K-Eco 180"/>
+    <n v="9"/>
+    <n v="317"/>
+    <n v="2853"/>
+  </r>
+  <r>
+    <n v="217"/>
+    <s v="Arden Bennett"/>
+    <s v="Louisiana"/>
+    <d v="2018-07-23T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL400"/>
+    <s v="K-Eco Blast 400"/>
+    <n v="13"/>
+    <n v="886"/>
+    <n v="11518"/>
+  </r>
+  <r>
+    <n v="218"/>
+    <s v="Graham Frederick"/>
+    <s v="Massachusetts"/>
+    <d v="2018-07-26T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH08"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (8-pack)"/>
+    <n v="17"/>
+    <n v="43.18"/>
+    <n v="734.06"/>
+  </r>
+  <r>
+    <n v="219"/>
+    <s v="Arden Bennett"/>
+    <s v="Louisiana"/>
+    <d v="2018-07-28T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL800"/>
+    <s v="K-Eco Blast 800"/>
+    <n v="12"/>
+    <n v="1284"/>
+    <n v="15408"/>
+  </r>
+  <r>
+    <n v="220"/>
+    <s v="Eric Donaldson"/>
+    <s v="Florida"/>
+    <d v="2018-07-29T00:00:00"/>
+    <x v="0"/>
+    <s v="KE180"/>
+    <s v="K-Eco 180"/>
+    <n v="15"/>
+    <n v="324"/>
+    <n v="4860"/>
+  </r>
+  <r>
+    <n v="221"/>
+    <s v="Francesca Hodges"/>
+    <s v="Iowa"/>
+    <d v="2018-07-30T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL400"/>
+    <s v="K-Eco Blast 400"/>
+    <n v="13"/>
+    <n v="882"/>
+    <n v="11466"/>
+  </r>
+  <r>
+    <n v="222"/>
+    <s v="Derek Conrad"/>
+    <s v="Colorado"/>
+    <d v="2018-07-31T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAAA06"/>
+    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <n v="2"/>
+    <n v="12.5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="223"/>
+    <s v="Amery Washington"/>
+    <s v="Illinois"/>
+    <d v="2018-07-31T00:00:00"/>
+    <x v="3"/>
+    <s v="KE13W08"/>
+    <s v="K-Eco Energy Bulbs 13W  (8-pack)"/>
+    <n v="10"/>
+    <n v="14.25"/>
+    <n v="142.5"/>
+  </r>
+  <r>
+    <n v="224"/>
+    <s v="Quail Vance"/>
+    <s v="Iowa"/>
+    <d v="2018-08-01T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W"/>
+    <s v="K-Eco Energy Bulbs 23W "/>
+    <n v="13"/>
+    <n v="13.8"/>
+    <n v="179.4"/>
+  </r>
+  <r>
+    <n v="225"/>
+    <s v="Wynter Roberts"/>
+    <s v="California"/>
+    <d v="2018-08-02T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAA06"/>
+    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <n v="16"/>
+    <n v="16.350000000000001"/>
+    <n v="261.60000000000002"/>
+  </r>
+  <r>
+    <n v="226"/>
+    <s v="Malik Faulkner"/>
+    <s v="Florida"/>
+    <d v="2018-08-03T00:00:00"/>
+    <x v="3"/>
+    <s v="KE13W04"/>
+    <s v="K-Eco Energy Bulbs 13W (4-pack)"/>
+    <n v="6"/>
+    <n v="16.55"/>
+    <n v="99.300000000000011"/>
+  </r>
+  <r>
+    <n v="227"/>
+    <s v="Adara Langley"/>
+    <s v="California"/>
+    <d v="2018-08-05T00:00:00"/>
+    <x v="0"/>
+    <s v="KE001"/>
+    <s v="K-Eco phone charger"/>
+    <n v="7"/>
+    <n v="19.850000000000001"/>
+    <n v="138.95000000000002"/>
+  </r>
+  <r>
+    <n v="228"/>
+    <s v="Adara Langley"/>
+    <s v="California"/>
+    <d v="2018-08-06T00:00:00"/>
+    <x v="1"/>
+    <s v="KI20K"/>
+    <s v="K-Invert 20K"/>
+    <n v="11"/>
+    <n v="44001"/>
+    <n v="484011"/>
+  </r>
+  <r>
+    <n v="229"/>
+    <s v="Melyssa Gates"/>
+    <s v="California"/>
+    <d v="2018-08-13T00:00:00"/>
+    <x v="0"/>
+    <s v="KE5"/>
+    <s v="K-Eco Mini "/>
+    <n v="8"/>
+    <n v="43.95"/>
+    <n v="351.6"/>
+  </r>
+  <r>
+    <n v="230"/>
+    <s v="Clementine Oliver"/>
+    <s v="Kansas"/>
+    <d v="2018-08-17T00:00:00"/>
+    <x v="1"/>
+    <s v="KI13K"/>
+    <s v="K-Invert 13K"/>
+    <n v="4"/>
+    <n v="28606"/>
+    <n v="114424"/>
+  </r>
+  <r>
+    <n v="231"/>
+    <s v="Karly Hardin"/>
+    <s v="Ohio"/>
+    <d v="2018-08-21T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAA06"/>
+    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <n v="4"/>
+    <n v="10.35"/>
+    <n v="41.4"/>
+  </r>
+  <r>
+    <n v="232"/>
+    <s v="Coby Lucas"/>
+    <s v="Tennessee"/>
+    <d v="2018-08-22T00:00:00"/>
+    <x v="2"/>
+    <s v="KE48Li"/>
+    <s v="K-Eco 48-volt Lithium-ion solar backup battery"/>
+    <n v="11"/>
+    <n v="13235"/>
+    <n v="145585"/>
+  </r>
+  <r>
+    <n v="233"/>
+    <s v="Hadley Sosa"/>
+    <s v="Florida"/>
+    <d v="2018-08-25T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W04"/>
+    <s v="K-Eco Energy Bulbs 20W (4-pack)"/>
+    <n v="7"/>
+    <n v="17.45"/>
+    <n v="122.14999999999999"/>
+  </r>
+  <r>
+    <n v="234"/>
+    <s v="Malik Faulkner"/>
+    <s v="Florida"/>
+    <d v="2018-08-29T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBR5"/>
+    <s v="K-Eco Breeze Mini "/>
+    <n v="17"/>
+    <n v="59"/>
+    <n v="1003"/>
+  </r>
+  <r>
+    <n v="235"/>
+    <s v="Quail Vance"/>
+    <s v="Iowa"/>
+    <d v="2018-08-30T00:00:00"/>
+    <x v="0"/>
+    <s v="KE5"/>
+    <s v="K-Eco Mini "/>
+    <n v="15"/>
+    <n v="46.95"/>
+    <n v="704.25"/>
+  </r>
+  <r>
+    <n v="236"/>
+    <s v="Brock Case"/>
+    <s v="Virginia"/>
+    <d v="2018-09-03T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W"/>
+    <s v="K-Eco Energy Bulbs 20W "/>
+    <n v="13"/>
+    <n v="9.65"/>
+    <n v="125.45"/>
+  </r>
+  <r>
+    <n v="237"/>
+    <s v="Nicole Mcconnell"/>
+    <s v="California"/>
+    <d v="2018-09-04T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W08"/>
+    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <n v="15"/>
+    <n v="14.4"/>
+    <n v="216"/>
+  </r>
+  <r>
+    <n v="238"/>
+    <s v="Raja Wells"/>
+    <s v="District of Columbia"/>
+    <d v="2018-09-12T00:00:00"/>
+    <x v="0"/>
+    <s v="KE325X"/>
+    <s v="K-Eco 325x (same power, smaller footprint)"/>
+    <n v="16"/>
+    <n v="895.5"/>
+    <n v="14328"/>
+  </r>
+  <r>
+    <n v="239"/>
+    <s v="Eric Donaldson"/>
+    <s v="Florida"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W04"/>
+    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <n v="10"/>
+    <n v="14"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <n v="240"/>
+    <s v="Debra Finley"/>
+    <s v="Ohio"/>
+    <d v="2018-09-17T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL400"/>
+    <s v="K-Eco Blast 400"/>
+    <n v="1"/>
+    <n v="889"/>
+    <n v="889"/>
+  </r>
+  <r>
+    <n v="241"/>
+    <s v="Iliana Hester"/>
+    <s v="Illinois"/>
+    <d v="2018-09-18T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W"/>
+    <s v="K-Eco Energy Bulbs 23W "/>
+    <n v="7"/>
+    <n v="13.8"/>
+    <n v="96.600000000000009"/>
+  </r>
+  <r>
+    <n v="242"/>
+    <s v="Indira Odom"/>
+    <s v="Minnesota"/>
+    <d v="2018-09-26T00:00:00"/>
+    <x v="0"/>
+    <s v="KE200"/>
+    <s v="K-Eco 200"/>
+    <n v="17"/>
+    <n v="351"/>
+    <n v="5967"/>
+  </r>
+  <r>
+    <n v="243"/>
+    <s v="Joshua Delaney"/>
+    <s v="Oklahoma"/>
+    <d v="2018-09-28T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W04"/>
+    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <n v="7"/>
+    <n v="14"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <n v="244"/>
+    <s v="Brooke Perkins"/>
+    <s v="Texas"/>
+    <d v="2018-10-02T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAAA06"/>
+    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <n v="17"/>
+    <n v="9.5"/>
+    <n v="161.5"/>
+  </r>
+  <r>
+    <n v="245"/>
+    <s v="Blaine Ashley"/>
+    <s v="North Carolina"/>
+    <d v="2018-10-03T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL400"/>
+    <s v="K-Eco Blast 400"/>
+    <n v="1"/>
+    <n v="883"/>
+    <n v="883"/>
+  </r>
+  <r>
+    <n v="246"/>
+    <s v="Sade Santiago"/>
+    <s v="Alaska"/>
+    <d v="2018-10-18T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAAA06"/>
+    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <n v="18"/>
+    <n v="9.5"/>
+    <n v="171"/>
+  </r>
+  <r>
+    <n v="247"/>
+    <s v="Mona Matthews"/>
+    <s v="California"/>
+    <d v="2018-10-20T00:00:00"/>
+    <x v="1"/>
+    <s v="KI4K"/>
+    <s v="K-Invert 4K"/>
+    <n v="11"/>
+    <n v="6128"/>
+    <n v="67408"/>
+  </r>
+  <r>
+    <n v="248"/>
+    <s v="Astra Edwards"/>
+    <s v="New York"/>
+    <d v="2018-10-21T00:00:00"/>
+    <x v="0"/>
+    <s v="KE300"/>
+    <s v="K-Eco 300"/>
+    <n v="14"/>
+    <n v="531"/>
+    <n v="7434"/>
+  </r>
+  <r>
+    <n v="249"/>
+    <s v="Sydney Bartlett"/>
+    <s v="Tennessee"/>
+    <d v="2018-10-26T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL100"/>
+    <s v="K-Eco Blast 100"/>
+    <n v="9"/>
+    <n v="281"/>
+    <n v="2529"/>
+  </r>
+  <r>
+    <n v="250"/>
+    <s v="Arden Bennett"/>
+    <s v="Louisiana"/>
+    <d v="2018-10-28T00:00:00"/>
+    <x v="2"/>
+    <s v="KE12Li"/>
+    <s v="K-Eco 12-volt Lithium-ion solar backup battery"/>
+    <n v="5"/>
+    <n v="4504"/>
+    <n v="22520"/>
+  </r>
+  <r>
+    <n v="251"/>
+    <s v="Jael Rice"/>
+    <s v="California"/>
+    <d v="2018-10-28T00:00:00"/>
+    <x v="2"/>
+    <s v="KE18Li"/>
+    <s v="K-Eco 18-volt Lithium-ion solar backup battery"/>
+    <n v="13"/>
+    <n v="5205"/>
+    <n v="67665"/>
+  </r>
+  <r>
+    <n v="252"/>
+    <s v="Zephr Mcgee"/>
+    <s v="Pennsylvania"/>
+    <d v="2018-10-28T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL100"/>
+    <s v="K-Eco Blast 100"/>
+    <n v="7"/>
+    <n v="282"/>
+    <n v="1974"/>
+  </r>
+  <r>
+    <n v="253"/>
+    <s v="Jaime Craig"/>
+    <s v="Ohio"/>
+    <d v="2018-11-01T00:00:00"/>
+    <x v="3"/>
+    <s v="KE13W08"/>
+    <s v="K-Eco Energy Bulbs 13W  (8-pack)"/>
+    <n v="14"/>
+    <n v="21.25"/>
+    <n v="297.5"/>
+  </r>
+  <r>
+    <n v="254"/>
+    <s v="Barrett Howell"/>
+    <s v="California"/>
+    <d v="2018-11-02T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W08"/>
+    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <n v="6"/>
+    <n v="21.4"/>
+    <n v="128.39999999999998"/>
+  </r>
+  <r>
+    <n v="255"/>
+    <s v="Kyla Hebert"/>
+    <s v="North Carolina"/>
+    <d v="2018-11-03T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAA12"/>
+    <s v="K-Eco AA  NiMH rechargeable batteries (12-pack)"/>
+    <n v="18"/>
+    <n v="13.5"/>
+    <n v="243"/>
+  </r>
+  <r>
+    <n v="256"/>
+    <s v="Coby Lucas"/>
+    <s v="Tennessee"/>
+    <d v="2018-11-06T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH12"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (12-pack)"/>
+    <n v="1"/>
+    <n v="44.92"/>
+    <n v="44.92"/>
+  </r>
+  <r>
+    <n v="257"/>
+    <s v="Graham Frederick"/>
+    <s v="Massachusetts"/>
+    <d v="2018-11-08T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH04"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (4-pack)"/>
+    <n v="14"/>
+    <n v="23.03"/>
+    <n v="322.42"/>
+  </r>
+  <r>
+    <n v="258"/>
+    <s v="Wynter Roberts"/>
+    <s v="California"/>
+    <d v="2018-11-11T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAA06"/>
+    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <n v="4"/>
+    <n v="11.35"/>
+    <n v="45.4"/>
+  </r>
+  <r>
+    <n v="259"/>
+    <s v="Arden Bennett"/>
+    <s v="Louisiana"/>
+    <d v="2018-11-15T00:00:00"/>
+    <x v="3"/>
+    <s v="KE9W08"/>
+    <s v="K-Eco Energy Bulbs 9W  (8-pack)"/>
+    <n v="16"/>
+    <n v="12.5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <n v="260"/>
+    <s v="Nolan Slater"/>
+    <s v="Nevada"/>
+    <d v="2018-11-18T00:00:00"/>
+    <x v="0"/>
+    <s v="KE325X"/>
+    <s v="K-Eco 325x (same power, smaller footprint)"/>
+    <n v="14"/>
+    <n v="891.5"/>
+    <n v="12481"/>
+  </r>
+  <r>
+    <n v="261"/>
+    <s v="Amena Petersen"/>
+    <s v="New York"/>
+    <d v="2018-11-18T00:00:00"/>
+    <x v="5"/>
+    <s v="KEPATH01"/>
+    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+    <n v="12"/>
+    <n v="13.25"/>
+    <n v="159"/>
+  </r>
+  <r>
+    <n v="262"/>
+    <s v="Zena Washington"/>
+    <s v="California"/>
+    <d v="2018-11-20T00:00:00"/>
+    <x v="0"/>
+    <s v="KE575"/>
+    <s v="K-Eco 575"/>
+    <n v="8"/>
+    <n v="1012.25"/>
+    <n v="8098"/>
+  </r>
+  <r>
+    <n v="263"/>
+    <s v="Chastity Charles"/>
+    <s v="Alabama"/>
+    <d v="2018-11-20T00:00:00"/>
+    <x v="3"/>
+    <s v="KE23W04"/>
+    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <n v="15"/>
+    <n v="13"/>
+    <n v="195"/>
+  </r>
+  <r>
+    <n v="264"/>
+    <s v="Chester Best"/>
+    <s v="Minnesota"/>
+    <d v="2018-11-25T00:00:00"/>
+    <x v="3"/>
+    <s v="KE20W08"/>
+    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <n v="13"/>
+    <n v="13.4"/>
+    <n v="174.20000000000002"/>
+  </r>
+  <r>
+    <n v="265"/>
+    <s v="Derek Conrad"/>
+    <s v="Colorado"/>
+    <d v="2018-11-26T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBR5"/>
+    <s v="K-Eco Breeze Mini "/>
+    <n v="8"/>
+    <n v="58"/>
+    <n v="464"/>
+  </r>
+  <r>
+    <n v="266"/>
+    <s v="Lunea Rios"/>
+    <s v="Maryland"/>
+    <d v="2018-11-27T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL100"/>
+    <s v="K-Eco Blast 100"/>
+    <n v="18"/>
+    <n v="289"/>
+    <n v="5202"/>
+  </r>
+  <r>
+    <n v="267"/>
+    <s v="Rose Holcomb"/>
+    <s v="Georgia"/>
+    <d v="2018-11-27T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL200"/>
+    <s v="K-Eco Blast 200"/>
+    <n v="14"/>
+    <n v="557"/>
+    <n v="7798"/>
+  </r>
+  <r>
+    <n v="268"/>
+    <s v="Jaime Craig"/>
+    <s v="Ohio"/>
+    <d v="2018-12-10T00:00:00"/>
+    <x v="0"/>
+    <s v="KE575"/>
+    <s v="K-Eco 575"/>
+    <n v="2"/>
+    <n v="1015.25"/>
+    <n v="2030.5"/>
+  </r>
+  <r>
+    <n v="269"/>
+    <s v="Rose Holcomb"/>
+    <s v="Georgia"/>
+    <d v="2018-12-12T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAAA06"/>
+    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <n v="8"/>
+    <n v="9.5"/>
+    <n v="76"/>
+  </r>
+  <r>
+    <n v="270"/>
+    <s v="Gray Gutierrez"/>
+    <s v="District of Columbia"/>
+    <d v="2018-12-16T00:00:00"/>
+    <x v="3"/>
+    <s v="KE13W08"/>
+    <s v="K-Eco Energy Bulbs 13W  (8-pack)"/>
+    <n v="2"/>
+    <n v="21.25"/>
+    <n v="42.5"/>
+  </r>
+  <r>
+    <n v="271"/>
+    <s v="Raja Wells"/>
+    <s v="District of Columbia"/>
+    <d v="2018-12-18T00:00:00"/>
+    <x v="0"/>
+    <s v="KE5"/>
+    <s v="K-Eco Mini "/>
+    <n v="18"/>
+    <n v="40.950000000000003"/>
+    <n v="737.1"/>
+  </r>
+  <r>
+    <n v="272"/>
+    <s v="Adara Langley"/>
+    <s v="California"/>
+    <d v="2018-12-27T00:00:00"/>
+    <x v="2"/>
+    <s v="KEAAA12"/>
+    <s v="K-Eco  AAA NiMH rechargeable batteries (12-pack)"/>
+    <n v="5"/>
+    <n v="12.8"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <n v="273"/>
+    <s v="Sydney Bartlett"/>
+    <s v="Tennessee"/>
+    <d v="2018-12-27T00:00:00"/>
+    <x v="1"/>
+    <s v="KI4K"/>
+    <s v="K-Invert 4K"/>
+    <n v="7"/>
+    <n v="6127"/>
+    <n v="42889"/>
+  </r>
+  <r>
+    <n v="274"/>
+    <s v="Kyle Keith"/>
+    <s v="Georgia"/>
+    <d v="2018-12-29T00:00:00"/>
+    <x v="4"/>
+    <s v="KEBL100"/>
+    <s v="K-Eco Blast 100"/>
+    <n v="13"/>
+    <n v="290"/>
+    <n v="3770"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CBDB211-7B0F-43C8-8C4D-42D99182F65C}" name="TablaDinámica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Total Price" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B66E5DA-FCEB-4154-B20A-4E1700DF3609}" name="AllOrderDetails" displayName="AllOrderDetails" ref="A1:J275" totalsRowShown="0">
   <autoFilter ref="A1:J275" xr:uid="{267CAB33-8258-41DB-85DA-0708B87E3634}"/>
@@ -913,7 +5354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1208,12 +5649,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3770A455-1F7E-4A50-8C45-2E4CD3976AD3}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1219092.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3586923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8961.7000000000025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11108.969999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="2">
+        <v>295106.04000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="2">
+        <v>307043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5428235.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1772245-E949-49BD-9DDE-69AC1D118E83}">
   <dimension ref="A1:K275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
